--- a/analysis/xlsx/2020/2020_성별_매출.xlsx
+++ b/analysis/xlsx/2020/2020_성별_매출.xlsx
@@ -477,15 +477,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>678781000</v>
+        <v>721823000</v>
       </c>
       <c r="D2" t="n">
-        <v>678781000</v>
+        <v>721823000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2020년도 남 - 공급가액: 678781000.0, 예측 공급가액: 678781000.0
-2020년도 여 - 공급가액: 724596000.0, 예측 공급가액: 724596000.0</t>
+          <t>2020년도 남 - 공급가액: 721823000.0, 예측 공급가액: 721823000.0
+2020년도 여 - 공급가액: 681554000.0, 예측 공급가액: 681554000.0</t>
         </is>
       </c>
     </row>
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>724596000</v>
+        <v>681554000</v>
       </c>
       <c r="D3" t="n">
-        <v>724596000</v>
+        <v>681554000</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
